--- a/data.xlsx
+++ b/data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/api tham dinh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F0C4C4-63B4-CE4F-BE0C-F3F23DE1CB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCBFC1B-0B36-9C42-8F2C-F259DDEC854C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15940" xr2:uid="{AAE2C6C3-C05A-6840-A7E1-87D6B33F7874}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15820" xr2:uid="{AAE2C6C3-C05A-6840-A7E1-87D6B33F7874}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
   <si>
     <t>Mã phương án</t>
   </si>
@@ -525,6 +526,217 @@
 4.  Nhu cầu vốn hiện tại:Trướcđây,  KH  kinh   doanh chủ yếu dựa  vào vốntự  có,  tuy nhiên đây là ngành nghề cần vốn lưu động bổ sung nhiều để nhập tôm hùm giống cũng như là bổ sung nguồn thức ăn cho tôm, do đó KH cần bổ sung vốn.
 5. Đánh giá khách hàng :
 - Khách hàng có kinh doanh liên tục và ổn định tại địa phương lâu nămà=&gt; ĐVKD đánh giá khách hàng tốt,đảm bảo</t>
+  </si>
+  <si>
+    <t>LTI23241000536</t>
+  </si>
+  <si>
+    <t>LTI23248000212</t>
+  </si>
+  <si>
+    <t>LTI23333001091</t>
+  </si>
+  <si>
+    <t>LTI23215000379</t>
+  </si>
+  <si>
+    <t>- 1. PHÁP LÝ KINH DOANH
+- KH là doanh nghiệp tư nhân nuôi tôm tại địa bàn tỉnh An Giang. KH có giấy phép kinh
+doanh số 52F8004026 cấp ngày 12/11/2009 Bình Lợi, Bình Chánh, Châu Phú, An
+Giang.
+=&gt; Đáp ứng đúng quy định MB
+- 2. NĂNG LỰC TÀI CHÍNH
+- Kinh nghiệm kinh doanh: 65 tháng
+- Địa điểm kinh doanh : Khách hàng kinh doanh tại Bình Chánh, Châu Phú, An Giang
+và Vĩnh Bình, Châu Thành, An Giang.
+- Diện tích kho bãi: 52.000m2 (24.400m2 ao thuê và 27.200m2 ao nhà). Hoạt động chăn
+nuôi không cần quảng bá hình ảnh nên không có bảng hiệu, địa chỉ.
+* Phương thức hoạt động kinh doanh
+- Thực hiện thu mua tôm giống từ các trang trại giống ở Long Xuyên và một số khu vực
+lân cận, thức ăn cho tôm được mua từ các đại lý thức ăn ở Châu Phú, Châu Thành, có hoạt động trong lĩnh vực buôn chuyến.
+- Thanh toán: 100% bằng tiền mặt
+- Thị trường đầu vào của khách hàng là các trang trại giống ở địa bàn tỉnh An Giang và
+các tỉnh lân cận như Đồng Tháp, Kiên Giang, Cần Thơ,… đảm bảo nguồn hàng chất
+lượng và số lượng..
+- Thị trường đầu ra: Do đặc thù của riêng ngành chăn nuôi, khi KH bán cho các thương
+lái sẽ được cân tại ao nuôi, ghi nhận mã số lượng và tổng hợp lại thành số tổng để nhận
+tiền trực tiếp tại chỗ, hình thức bán nợ, thời gian thanh toán trung bình là khoảng 1-2
+tháng. Thị trường đầu ra chủ yếu là trên địa bàn và các tỉnh lân cận như: Đồng Tháp,
+Kiên Giang, Cần Thơ,...
+- Nhân công thuê ngoài thêm khoảng 3-4 người phục vụ cho hoạt động chăn nuôi, chăm
+sóc, kỹ thuật.</t>
+  </si>
+  <si>
+    <t>• Hộ kinh doanh của khách hàng có trình độ chuyên môn cao và số lượng KH đầu ra ổn định
+chất lượng mà KH đã tích lũy
+• Phân tích hàng tồn kho + công nợ và khoản phải thu bình quân của Khách hàng:
+1. Công nợ bình quân KH 15 tỷ đồng
+- Do các đối tác đã làm ăn, hợp tác lâu dài nên khách hàng bán theo hình thức bán nợ, thời gian
+thanh toán trung bình là khoảng 1-2 tháng mới thanh toán tiền hàng, KH đã kinh doanh nhiều
+năm kinh nghiệm kinh doanh và am hiểu tình hình kinh tế các đối tác về mặt quản trị công nợ
+KH rất tốt.
+2. Hàng tồn kho bình quân ~ 7,5 tỷ đồng chủ yếu là tôm chờ xuất bán, thời gian chăn nuôi từ 3-4
+tháng.
+=&gt; Đánh giá ĐVKĐ:
+- KH là một trong HKD có uy tín rất cao tại địa bàn Bình Chánh, với đối tác đầu ra rất ổn định,
+ngành nghề có xu hướng phát triển trong thời gian tới, bên cạnh đó KH còn cầu nối giới thiệu
+các KH vay vốn nông nghiệp để MB phát triển các sản phẩm dịch vụ rất tốt (TKSĐ, APP,QR,
+Casa, MBAL, Thẻ tín dụng...)
+- Qua thẩm định trực tiếp ĐVKĐ đánh giá số lượng và chất lượng HTK, công nợ phù hợp số
+liệu KH đã cung cấp.
+- Tỷ suất lợi nhuận 8.3 phù hợp với tỷ suất LN ngành.
+- ĐVKD đánh giá đề xuất cấp HMTD 5 tỷ của KH là hợp lý phù hợp tình hình kinh doanh và
+quy định tại MB.
+- ĐVKD đề xuất giải ngân theo tiến độ bổ sung tài sản</t>
+  </si>
+  <si>
+    <t>* Khách hàng đang sản xuất kinh doanh (Nuôi tôm công nghệ cao) tại ẤpĐông Thành, xã Đông Hải, thị xã Duyên Hải, tỉnh Trà Vinh, 
+Quy trình nuôi tôm như sau:
+- KH nuôi xen canh mỗi đợt KH thả 2 ao sau đó cách nhau 1 tháng KH tiếp tục thả xoay vòng các ao tiếp theo. Mỗi vụ nuôi KH thả khoảng 1,5 – 2 triệu con giống, thời gian nuôi từ 01 đến 1,5 tháng KH sẽ chuyển sang ao nuôi chính thức, từ 02 tháng trở lên KH sẽ tỉa tôm đợt 1 (trung bình từ 30-35 con/kg) để đảm bảo mật độ nuôi phù hợp và bán lượng tôm tỉa cho thương lái. Sau đó từ 20 - 25 ngày KH sẽ tỉa tiếp đợt thứ 2 (trung bình từ 25-30 con/kg). KH tiếp tục nuôi đến tháng thứ 3 khi tôm đạt trung bình 20-25 con/kg KH sẽ kéo hết ao và bán cho thương lái.
+* ĐVKD áp dụng chính sách ghi nhận thu nhập của khách hàng như sau: 
+Tổng  DT đất dùng để  NTTS của   KH khoảng  26,000 m² nhưng phần  DT đất  nuôi khoảng 8,000 m² được  chia   làm  06  ao   nuôi.  DT mỗi ao nuôi: Từ  1,200 –   1,600 m² với tổng  DT trung bình  là  10,000 m² phần DT  còn lại KH dùng để xử lý nước. Phần DT dùng để làm ao xử lý nước được chia làm 02 ao xử lý nước đầu vào với DT mỗi ao từ 2,000 – 2,200 m². Sau khi thu hoạch tôm phần nước thải trong ao được chuyển ra ao thải để xử lý nước trước khi đưa ra ngoài môi trường được chia ra làm 2 ao thải với DT mỗi ao là 2,500 m². Khách hàng đang nuôi 06 ao công nghệ, 02 ao xử lý nước đầu vào và 02 ao xử lý nước thải.
+* Giống nuôi: Tôm thẻ chân trắng, Size xuất bán: Từ 25-35 con/kg, Giá bán: Từ 120 – 150,000 đồng/kg, Mật độ thả tối đa: 300 con/m2, Tỷ lệ hao hụt: 20%, Thời gian nuôi TB ~ 3.5 tháng
+* Do đặc thù của ngành nuôi Tôm theo hộ Gia đình nên không có biển hiệu
++ Đầu vào: Con giống, thức ăn được khách hàng lấy từ nhân viên tiếp thị của công ty, các đại lý, nhà  phân phối  trên địa   bàn huyện Duyên Hải, tỉnh   Trà  Vinh,...  Con giống   là  con giống tốt nhất được nhân giống  và được chọn lọc kỹ lưỡng.  Quy   trình chọn  con giống của  khách   hàng được đảm bảo khắt khe và nghiêm ngặt để có thể đem đến chất lượng con giống tốt nhất.
++ Đầu  ra: Đến thời điểm  thu hoạch   tôm  các thương  lái   thu hoạch  tôm sẽ đến  thu hoạch tận nơi, các thương lái lớn đến thu hoạch từ nhiều nơi trên khắp cả nước như Bạc Liêu, Sóc Trăng, Cà  Mau,..   Con giống được chọn lựa đem đến chất lượng  thu hoạch   tôm  luôn tốt. Được  các thương lái, tiểuthương thu hoạch với giá cao nhất.
++ Nguồn thu nhập từ nuôi tôm công nghệ mật độ cao, hiện tại khách hàng đang nuôi tôm công nghệ mật độ cao 6 ao, khách hàng đang có xu hướng mở rộng thêm quy mô kinh doanh.
++ Doanh thu: 14,850,000,000 đồng/năm =&gt;   1,237,500,000 đồng/tháng
++  Chi  phí   nuôi  tôm  bao   gồm:  Chi  phí   giá  vốn,  chi   phí  vận chuyển, điện,nước...trungbình: 13,068,000,000 đồng/năm =&gt;   1,069,000,000 đồng/ tháng.
++ Lợi nhuận: 1,782,000,000 đồng/năm(tươngđương   148,500,000 đồng/tháng)
+Do đặc thù về hoạtđộng SXKD do gia đình tự quản lý nên không sổ sách ghi chép và theo dõi, nên cùng với việc đi thẩm định thực tế có hình ảnh kinh doanh kèm theo thu nhập của KH là    148,500,000 đồng/ tháng là hợp lý.</t>
+  </si>
+  <si>
+    <t>Đơn vị kinh doanh đề xuất cấp 2 hạn mức kinh doanh nuôi tôm hùm 1.9 tỷ và mua bán thủy hải sản 400tr được bóc tách cụ thể chi tiết tại phương án vay vốn và đánh giá như sau:
+Phương án nuôi tôm hùm
+1. Thông tin pháp lý 
+Theo giấy Giấy chứng nhận tình trạng SXKD được UBND xã Cam Bình cấp ngày 13/11/2023, – HKD Phan Thị Mỹ Trâm, hiện đang nuôi 50 lồng tôm hùm tại Vùng biển Xã Cam Bình, TP Cam Ranh, Khánh Hòa. KH có kinh nghiệm mua bán ngành nghề này được 120 tháng. 
+2. Quy trình hoạt động sản xuất nuôi trồng
+- Quy trình kinh doanh bao gồm: Lựa chọn vị trí nuôi tôm hùm (vị trí tại biển) -&gt; Thiết kế ô lồng nuôi tôm hùm -&gt; Chọn tôm hùm giống và tính toán mật độ thả tôm trong 1 lồng -&gt; Nuôi tôm, lựa chọn thức ăn tôm, cho ăn, quản lý, vệ sinh lồng tôm, chăm sóc tôm mỗi ngày -&gt; Thu hoạch tôm từ 8 – 10 tháng (trung bình là 9 tháng)
+- Đặc thù ngành nghề: 1 vòng quay nuôi trồng của KH là 9 tháng (từ lúc thả giống đến lúc thu hoạch). Vì tính chất đặc thù thu hoạch lâu ngày, do đó đa số các hộ nuôi trồng đều thả tôm giống gối đầu theo tháng (6-8 lồng/1 đợt(tháng), do đó quanh năm KH đều có thu nhập và xuất bán ổn định, cứ mỗi tháng KH sẽ thu hoạch và xuất bán tôm hùm 1 lần).
+- Quy mô khách hàng : 50 lồng ( căn cứ theo thẩm định thực tế của CBQL và RM cùng khách hàng)
+- Xuất tôm và bán sỉ (90%) cho thương lái, các đậu nậu lớn thu tôm hùm tại địa phương &amp; lẻ (10%) cho các HKD nhà hàng, quán ăn, resort, Khách hàng du lịch, lẻ,….
+- Lợi thế thương mại:Tốt. Vịnh Cam Ranh được xem là thủ phủ tôm hùm, được thiên nhiên ưu đãi là nguồn nước cực trong xanh sạch sẽ, được nằm trong khu vực trực tiếp với biển, nơi có độ mặn cao, lượng sóng tương đối ổn định ít bị ảnh hưởng bởi bên ngoài; nằm tách biệt với đất liền do đó không có chất thải công nghiệp, nông nghiệp và đô thị. Ngoài ra, còn được bao bọc bởi các dãy núi nơi kín gió, có độ sâu phù hợp cho việc xây dựng và quản lí lồng nuôi, gần nguồn giống, thức ăn..v.v. đã khiến tôm hùm ở đây nuôi nhanh lớn, đạt trọng lượng tối đa, thịt thơm, dai, có vị ngọt đằm, sản lượng thu hoạch tốt.
+3. Quy mô HTK &amp; KPT của KH:
+Thẩm định thực tế và PV khách hàng hiện tại Hàng tồn kho KH ~12000 tr đồng (Hiện KH  đang có 12 lồng tôm hùm thịt chuẩn bị thu hoạch, xuất bán, mỗi lồng tôm đo lường doanh thu ~ 100trđ/lồng) và thả gối đầu 38 lồng tôm hùm giống, công nợ ~ 10400 tr đồng (trung bình 1 đơn hàng khách hàng sẽ cho công nợ 60%, 3 đến 4 tháng thanh toán 1 lần)  trung bình mỗi lồng tôm đạt sản lượng ~ 100 kg  à 130 kg giá tôm hùm trung bình khoảng 800.000 đồng.
+4. Nhu cầu vốn hiện tại: Trước đây, KH kinh doanh chủ yếu dựa vào vốn tự có, tuy nhiên đây là ngành nghề cần vốn lưu động bổ sung nhiều để nhập tôm giống cũng như là bổ sung nguồn thức ăn cho tôm, do đó KH cần bổ sung vốn  1.9 tỷ
+Phương án kinh doanh hải sản</t>
+  </si>
+  <si>
+    <t>Phương án kinh doanh hải sản
+1. Thông tin pháp lý 
+Theo giấy Giấy chứng nhận tình trạng SXKD được UBND xã Cam Bình cấp ngày 13/11/2023, – HKD Phan Thị Mỹ Trâm, hiện đang là doanh nghiệp tư nhân kinh doanh mua bán hải sản tại Thôn Bình Ba Đông, Xã Cam Bình, TP Cam Ranh, Khánh Hòa. KH có kinh nghiệm mua bán ngành nghề này được 120 tháng. 
+- HKD đã kinh doanh được 10 năm, có kinh nghiệm lâu năm trên địa bàn, biển hiệu tên Mỹ Trâm.
+2. Quy mô cơ sở kinh doanh: diện tích ~ 200m2, Nằm tại nhà KH
+ – Phương thức kinh doanh: Nhập hải sản từ các hộ nuôi trồng, đánh bắt trên biển Cam Ranh -&gt; Lưu kho, phân loại -&gt; Phân phối tới các KH -&gt; Phân phối sỉ 80% cho các khách sỉ và 20% cho các KH lẻ
+- Lợi thế thương mại: 
++ Cơ sở kinh doanh nằm tại trên đảo Bình Ba, Gần các khu nuôi trồng của các hộ nuôi trồng hải sản, có bến cảng lớn, lượng tàu qua lại nhiều, thuận tiện cho quá trình buôn bán.., có hoạt động buôn chuyến
++ Trong 9 tháng đầu năm 2023, ngành du lịch Khánh Hòa đã đón 5,7 triệu khách lưu trú, tổng doanh thu đạt trên 27.500 tỷ đồng, vượt các mục tiêu đề ra =&gt; Nhu cầu sửa chữa, xây dựng nhà cửa của người dân, đặc biệt là Khách du lịch đã tăng mạnh trở lại sau dịch
+2. Công nợ và hàng tồn kho:
+ HTK chiếm khoảng 75 triệu đồng (Hàng tồn gồm: Các hải sản tại cửa hàng cơ sở kinh doanh)  
+Công nợ chiếm ~ 375 tr đồng
+Phương thức thanh toán: Trả ngay 50%, trả chậm 50%, Tiền mặt 100%
+Theo sổ sách của KH cung cấp, KH ghi nhận doanh thu cả từ việc bán tôm hùm. Do đơn vị kinh doanh chưa thể bóc tách được giữa tôm của KH và tôm KH nhập để bán =&gt; Đề xuất chỉ ghi nhận doanh thu từ các sản mặt hàng khác =&gt; ~15% doanh thu.
+KH phát sinh nhu cầu vốn do hiện tại cần mở rộng kinh doanh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Pháp lý:
+- Khách hàng có giấy xác nhận kinh doanh do UBND phường Cam Phú  ký ngày 31/07/2023
+2. Năng lực kinh doanh:
+- CSKD tại Cam Phú, Cam Ranh, Khánh Hòa
+- Đầu vào: Tôm tôm giống được nhập từ Philippines, Indonesia và Singapore thông qua các đầu nậu tại địa phương
+- Đầu ra: KH cung cấp tôm sỉ lẻ cho các cơ sở buôn bán tôm hùm tại địa phương, xuất bán cho các đầu nậu xuất hàng sang Quốc. Ngoài ra, khách hàng cũng trực tiếp đi thu mua và bán lại cho các bạn hàng thân thuộc 
+- Hình thức kinh doanh: Nhập con giống --&gt; Nuôi dưới biển độ sâu 4-5 m dưới mặt  nước biển, thời gian xuất 9-10 tháng nuôi, nuôi gối đầu --&gt; Xuất tôm --&gt; Công nợ
++ Lựa chọn vị trí nuôi tôm hùm (vị trí tại biển) -&gt; Thiết kế ô lồng nuôi tôm hùm -&gt; Chọn tôm hùm giống và tính toán mật độ thả tôm trong 1 lồng -&gt; Nuôi tôm, lựa chọn thức ăn tôm, cho ăn, quản lý, vệ sinh lồng tôm, chăm sóc tôm mỗi ngày -&gt; Thu hoạch tôm từ 8 – 10 tháng (trung bình là 9 tháng) –&gt; Công nợ
+- Đặc thù ngành nghề: 1 vòng quay nuôi trồng của KH là 9 tháng (từ lúc thả giống đến lúc thu hoạch). Vì tính chất đặc thù thu hoạch lâu ngày, do đó đa số các hộ nuôi trồng đều thả tôm giống gối đầu theo tháng (2-3 lồng/1 đợt(tháng), do đó quanh năm KH đều có thu nhập và xuất bán ổn định, cứ mỗi tháng KH sẽ thu hoạch và xuất bán tôm hùm 1 lần).
+ - Quy mô khách hàng đạt: 30 lồng ( căn cứ  theo hình ảnh và video đơn vị kinh doanh cung cấp). KH có 2 dây tôm hùm, 1 dây lồng
++ Diễn giải: ĐVKD trực tiếp đánh giá thời điểm KH cho tôm ăn. Trung bình 1 túi thức ăn tôm, sẽ thả vào 1 lồng. ĐVKD trực tiếp kiểm soát số lượng túi thức ăn, và cách thức cho tôm ăn để đánh giá quy mô của KH. Cụ thể: 30 túi cho 30 lồng nuôi của KH.
+3. Kết quả kinh doanh:
+- Doanh thu: 408,000,000 đồng/ tháng
+- Lợi nhuận:  102,000,000  đồng/ tháng
+- Hàng tồn kho: 1,040,400,000 đồng 
++ Trung bình sản lượng 1 lồng đạt: Doanh thu năm trước đạt 3,121,200,000 đồng, trung bình 9 tháng xuất. ĐVKD xác định giống mới thả được 3 tháng. Hàng tồn kho ước tính 1,040,400,000 đồng là hoàn toàn phù hợp
+- Công nợ: 1,800,000,000  đồng( Trung bình 1 đơn hàng KH cho công nợ 60%. Trung bình 5-6 tháng thanh toán một lần
+- Tỷ lệ bán buôn: 90%. Bán lẻ: 10%
+- TSLN đạt 25% --&gt; phù hợp với quy định của MB
+- Ghi nhận linh hoạt theo 2161
+4. Mục đích vay lần này:
+- Khách hàng có nhu cầu bổ sung vốn lưu động phục vụ kinh doanh nuôi trồng tôm hùm
+- Khoản vay ngắn hạn 1 tỷ của KH bên Liên Việt Bank lãi suất 11%. Mục đích vay: Nuôi trông thủy hải sản tôm hùm. KH muốn tất toán rút sổ về, vay tại MB
+5. Đánh giá KH:
+- KH hoạt động kinh doanh liên tục ổn định tại địa phương lâu năm
+--&gt; ĐVKD đánh giá KH tốt, đảm bảo
+6. CB thực hiện thẩm định trực tiếp:
+Anh Phan Đình Cường – PGĐ phụ trách chi nhánh
+Võ Hà Định – Chuyên viên KHCN
+ </t>
+  </si>
+  <si>
+    <t>LTI23170000205</t>
+  </si>
+  <si>
+    <t>1. Thông tin chung
+-  Căn cứ  theo  giấy  xác  nhận  tình  trạng sản xuất  kinh  doanh  của Phường  Dĩ An, Thành Phố Dĩ An  ngày 15/06/2023,  KH  đã hoạt động  kinh  doanh  mua bán sỉ và lẻ bia, nước ngọt, nước  giải khát các loại từ  tháng  5/2019  đến nay. 
+- Khách hang có hơn 4 năm kinh nghiệm trong lĩnh vực này.
+2. Thông tin hộ kinh doanh
+- Ngành nghề hoạt động: Mua bán sỉ và lẻ bia, nước ngọt, nước  giải khát các loại.
+- Địa điểm kinh doanh: Khách hàng có thuê một kho khoảng 80m2 tại địa chỉ số 58 đường số 3, khu TTHC, Phường Dĩ An, TP.Dĩ An, Bình Dương với giá thuê 6,5 trđ/tháng làm địa điểm kinh doanh và kho hàng.
+Khách hàng có thuê 3 lao động chính chuyên bóc vác, xếp hàng, và đi giao hàng cho các khách hàng gần xa giá thuê mỗi lao động là 10tr/tháng/người.
+- Quy trình kinh doanh: nhập hàng =&gt;nhập kho=&gt; nhận đơn  =&gt; bán hàng =&gt; thu tiền
++ Đầu vào: Khách hàng nhập hàng nước ngọt, bia, nước mắm và mì gói .... từ các đại lý lớn uy tín trên địa bàn Bình Dương và Tp. Hồ Chí Minh =&gt; Nguồn hàng đầu vào ổn định về giá cả
+cũng như chất lượng hàng hóa.
++ Đầu ra: Các hộ kinh doanh tạp hóa nhỏ, nhà hàng ăn uống, quán nhậu gia đình và các quán cà phê, sân bóng trên địa bàn Tp. Dĩ An và Tp. Thủ Đức ...=&gt; Khách hàng có nguồn đầu ra ổn
+định và đa dạng.
+- Phương thức thanh toán: Tiền mặt
+* Kết quả kinh doanh của HKD:
+- Doanh thu: ~  2,329trđ
+- Tồn kho: ~  2,946trđ
+- Công nợ: ~2,228trđ
+- Chi phí điện nước, nhân công, mặt bằng: ~ 37,5trđ
+=&gt; Lợinhuận ~ 279trđ/tháng</t>
+  </si>
+  <si>
+    <t>LTI23173000519</t>
+  </si>
+  <si>
+    <t>5. Các khoản vay
+- Khoản vay tiêu dùng 500 trđ tại NH Nông nghiệp, thời gian vay 84 tháng, dư nợ còn lại 300 trđ, chi phí trả gốc lãi bình quân khoảng 10 trđ/tháng
+- Khoản vay 70 trđ tại NH chính sách xã hội, chi phí trả gốc lãi bình quân khoảng 2.5 trđ/tháng
+6. Lý do vay MB: Khách hàng chuyển dư nợ vay ngắn hạn từ NH Nông nghiệp sang MB</t>
+  </si>
+  <si>
+    <t>1. Năng lực hoạt động:
+- Lĩnh vực kinh doanh chính: Kinh doanh gas, bếp gas
+- Thời gian kinh doanh: từ 22/10/2007 đến nay 
+- Địa điểm kinh doanh: Vĩnh Thái, Hồng Thái Đông, Đông Triều, Quảng Ninh
+- Số lượng lao động: KH trực tiếp điều hành, quản lý 
+- Phương tiện kinh doanh: Khách hàng thuê dịch vụ vận chuyển ngoài
+- Cửa hàng, kho bãi: Cửa hàng khang trang tại ngôi nhà 3,5 tầng thuộc sở hữu của khách hàng
+2. Năng lực tài chính
+Tiền mặt 500 tr, hàng tồn kho bình quân 1.2 tỷ đồng, công nợ phải thu 800 triệu đồng, vòng quay vốn lưu động  4 vòng/năm. Tổng nhu cầu vốn bình quân của hộ kinh doanh ~ 2.8 tỷ, ngoài phần vốn tự có 1 tỷ đồng và phần vốn huy động khác, khách hàng đề nghị vay hạn mức tại MB 1 tỷ đồng.
+3. Phương thức hoạt động
+- Quy trình hoạt động kinh doanh (mô tả): nhập hàng =&gt; bán hàng =&gt; thu tiền
+- Đầu vào: Hàng hóa đầu vào của HKD là hàng hóa gas, bếp gas, thiết bị gas các loại,….. được nhập từ công ty Xuân Nghiêm Quảng Ninh, các đại lý phân phối bếp gas lớn tại Hải Phòng, Quảng Ninh. Hàng hóa đảm bảo chất lượng. Phương thức thanh toán: trả ngay, thanh toán 100% bằng tiền mặt.
+- Đầu ra: Bán lẻ trực tiếp cho các hộ gia đình tiêu dùng và giao hàng cho các nhà hàng, bếp ăn cơ quan, đơn vị trên địa bàn Mạo Khê, Đông Triều, Uông Bí, Kinh Môn, Sao Đỏ ( Hải Dương),.. Phương thức thanh toán: Tiền mặt 80%, chuyển khoản 20% thanh toán gối đầu. Trả ngay 30%, trả chậm 70%.
+4. Kết quả SXKD
+Căn cứ kết quả thẩm định trực tiếp hoạt động SXKD của khách hàng và các chứng từ nhập hàng khách hàng cung 1.026 trđ/tháng. 
++ Giá vốn bình quân đạt ~ 923 trđ/tháng tương đương 90%Doanh thu. 
++ Chi phí nhân công, vận chuyển, bốc xếp: 18 trđ/tháng ~ 2% giá vốn
++ Chi phí khác ( thuế, phí, xăng xe, điện thoại,….): 10 trđ/tháng. 
++ Thu nhập từ hoạt động SXKD của Khách hàng ~ 74 trđ/tháng</t>
+  </si>
+  <si>
+    <t>LTI23262000693</t>
+  </si>
+  <si>
+    <t>* Quá trình kinh doanh: Khách hàng đã có trên 4 năm kinh nghiệm trong việc buôn bán đồ gia dụng các loại tại Ấp Tam Hiệp, Xã Xuân Hiệp, Xuân Lộc, Đồng Nai. Đây là cơ sở của kh để hoạt động kinh doanh. Công việc chủ yếu do KH trực tiếp quản lý. *
+ Phương thức kinh doanh: Thương mại. Quy trình cụ thể: Nhập hàng -&gt; trưng bày /bỏ sỉ -&gt; xuất bán. * Đầu vào: Khách hàng nhập hàng trực tiếp từ mối quen lâu năm ở chợ Tân Bình, An Đông, Chợ Lớn.... do làm ăn lâu và thường nhập hàng số lượng lớn nên KH được nhập hàng với mức giá ưu đãi. Ước tính tổng giá trị hàng tồn kho 2.000trđ. - Phương thức thanh toán: trả ngay bằng tiền mặt. Nợ phải trả: 0 đồng. * Đầu ra: 70% KH bỏ mối lại cho các bạn hàng trong khu vực Xuân Lộc, Long Khánh, Cẩm Mỹ, 30% KH tự trưng bày bán tại CSKD. Nguồn hàng ra thường xuyên và liên tục...Các đối tác đầu ra sẽ đến lấy hàng trực tiếp tại cơ sở của Khách hàng lấy hàng hoặc KH gửi hàng cho đối tác. Công nợ dao động hiện tại ~ 3.500trđ. - Phương thức thanh toán: Tiền mặt. Trả ngay hoặc trả chậm không quá 9 tháng. Rủi ro liên quan: + Rủi ro về thị trường đầu ra, tuy nhiên do Khách hàng có nhiều năm kinh nghiệm trong lĩnh vực này nên đã tạo ra một thị trường đầu ra tương đối ổn định--&gt; rủi ro được hạn chế. + Rủi ro về khả năng thanh toán: Các đối tác đã quan hệ lâu năm và uy tín với Khách hàng--&gt; rủi ro được hạn chế. 
+* Tình hình kinh doanh: Theo thông tin Khách hàng cung cấp và thẩm định thực tế tại CSKD ( đính kèm biên bản kiểm tra ) RM đánh gái kết quả kinh doanh như sau:
+ - Doanh thu: 3.000 trđ/ tháng 
+- Giá vốn: 2.700 trđ/ tháng 
+- Chi phí: 60 trđ/ tháng ( nhân công, điện, nước...) 
+- Lợi nhận: 240 trđ/ tháng. ( Số liệu trên phù hợp với đặc thù của ngành và quy mô SXKD của Khách hàng ) 
+-Hiện tại khách hàng muốn tăng quy mô kinh doanh mở thêm các đối tác đầu vào đầu ra tích trữ hàng hóa để chuẩn bị cho các dịp lễ lớn... -&gt; cần tăng vốn để kinh doanh
+	5E+09</t>
   </si>
 </sst>
 </file>
@@ -568,12 +780,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -887,19 +1101,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F8E975-00F1-2649-BF93-32412B133FEA}">
-  <dimension ref="A1:F18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357790ED-1D65-3A49-BF1F-82941182A593}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="178" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="77.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="16384" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6">
+        <v>3000000000</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1000000000</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6">
+        <v>5000000000</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F8E975-00F1-2649-BF93-32412B133FEA}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView zoomScale="178" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="5" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -923,310 +1230,393 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>1000000000</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>2000000000</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>3000000000</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>3000000000</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>5000000000</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>3000000000</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>5000000000</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>5000000000</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>2000000000</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>5000000000</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>3000000000</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>5000000000</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>3000000000</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>5000000000</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>3000000000</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>3000000000</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3000000000</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>21000000000</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>30000000000</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>23000000000</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>1800000000</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
